--- a/AzimovFedor/evidence.xlsx
+++ b/AzimovFedor/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10605" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -57,15 +57,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
@@ -202,6 +193,123 @@
   </si>
   <si>
     <t>azimov0012</t>
+  </si>
+  <si>
+    <t>C6C081AC9CF04C1A37C28D125B4862FD6E4DFE9370544F9716CA7E9F5EC230AE</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>00ED50EAD188C526D3900DFFC91BF855A169A5B90C82F1A632AABB442D555289</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>6AE2458AE2755B16B4752F42A8B7A62A3B9C8B66471B9013179F3CE053EEE496</t>
+  </si>
+  <si>
+    <t>BABC0F91249BB1056911418D8A143127D5DDB53B0D886CDC4DAC277FCF2B70B3</t>
+  </si>
+  <si>
+    <t>2B61D7723F12A789B54A3C08B7909FA6D21F207D4C49C376028623D864C88F0B</t>
+  </si>
+  <si>
+    <t>035603FB79BA8B4DC18B779FEB737C50C2AE91B97424CCA42D44F9EC15322719</t>
+  </si>
+  <si>
+    <t>6DB4AF41CD47DF363F5F14C15D19322BDEF9E15AEFDD1BC48A0DC7F7B6B4460B</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>20CE1E17DEA0128FC2BF1894358DA414D1FDCD17C7D3ED57191D0FE80BE68055</t>
+  </si>
+  <si>
+    <t>61D269C1F48590A2CCA8511749DE03387453257CC495359A44ED248983F66378</t>
+  </si>
+  <si>
+    <t>6E9EB1D687A5AAE410BCBCA3919D0A0F6D8BC3256830DED3022BE3ECC1DE54FB</t>
+  </si>
+  <si>
+    <t>DB978E310878B29389EC365FB9DB86A6DDF318CD2C329E2893BDA524E4BC6EE0</t>
+  </si>
+  <si>
+    <t>6DBF720841CF72089084E84DFEC2981E9EDC8A8BC4CA495C1D8A660B7EE165DA</t>
+  </si>
+  <si>
+    <t>E692944FC2C45FF2427C9A3C026B54E534622A242E18FFADB90D4E2DDD016B1A</t>
+  </si>
+  <si>
+    <t>454FD6630DCFE0D450CD8CCFCAE9501FE27B4F1DEEEC6DB0246F7FAF844EEBEC</t>
+  </si>
+  <si>
+    <t>BBA1AE2923A40F6A5F9A25DB2FDEFA4652063132D4B38394C15C0DC7E4454792</t>
+  </si>
+  <si>
+    <t>55ECA5AE4B634484AE455BDAB0D90A07914A920061433EE1E0A84E314B586FAF</t>
+  </si>
+  <si>
+    <t>DAFE9B1A8E2267514B3C6247CC6EC0F1C15F86BEE4D6C18F32AFB34B3E8F4629</t>
+  </si>
+  <si>
+    <t>16B2738CB9CD320B0AAEA045039187E89C220B5651355BFD3AAAF0DE3F81D73A</t>
+  </si>
+  <si>
+    <t>7034F7F6D3BA3F579DE96F00B32D6C8995CD9FA032D90C7AEBE4B41A264EDD67</t>
+  </si>
+  <si>
+    <t>8DAF18FAD53375B2FBEB9510F22AF549AD1AC657A9BE747E48D126D9C42BE633</t>
+  </si>
+  <si>
+    <t>D2507876EF09D18FD90AAF14223E3DD7BCD277666E037C792E12A10391AD065E</t>
+  </si>
+  <si>
+    <t>C2CCADEB0D7A0DD8432CDA864157EBECDBEDDEA7F48D337E817F77D83B5D9400</t>
+  </si>
+  <si>
+    <t>22013FFAE042A1F3525AB7CC5F67A182F84F0BC92873AF1BCEC3BE084EE8C12B</t>
+  </si>
+  <si>
+    <t>67863095918C1B6AAC1DE0F78391429B07980560BB3E3C14F672B13E8D60DC1C</t>
+  </si>
+  <si>
+    <t>4A119ABCDE698EE2AFC0755F8D7469BBAACE228EE7DF94E846FA93E6C4129704</t>
+  </si>
+  <si>
+    <t>B999C8BED8E114C05323894CABBFA1D5C1A08E5FE8AB6E45E871FB4092AB594C</t>
+  </si>
+  <si>
+    <t>AF143E48110DE9AE8593D6DA6614145FC7A472B2735B51BAE993BBACE2A3AB68</t>
+  </si>
+  <si>
+    <t>FFD6F0808A1B2E5D8DD3EEF543927B01247F73CBBB02B230346FF9EB68D8FB2B</t>
+  </si>
+  <si>
+    <t>2C14AAB05C0C2EC10750BA14227A6DA53FF05AED44CF4714FA6830545411E549</t>
+  </si>
+  <si>
+    <t>50073C011E2457830B296DF26190334CC4CEF52AF6CF9B50B2D2BD82EB7E3795</t>
+  </si>
+  <si>
+    <t>CF4FB8F320FE742C915D25E8AA9F4324CE88142A8BB1204EAD7488A4E8DDE77E</t>
+  </si>
+  <si>
+    <t>E2C498C2D78E46AAD81E7EB1D345D03C9952B1DD21A0EA7A2E93EDA68D516B64</t>
+  </si>
+  <si>
+    <t>625020F47BD0A89FA11726D69FE390E679E9433229FA888B57299BFD66B8EDEF</t>
+  </si>
+  <si>
+    <t>DD3CFBB7BFF3C61888ED47F90CF3FFD89D56003E7A07D7B8BB9B008AC93189CF</t>
+  </si>
+  <si>
+    <t>AEEEA37059F0F0510A243B5073CC27767CC2730717C4D38678AAC70D95F9F3E3</t>
+  </si>
+  <si>
+    <t>A48C0DB5056E937B740FC7430CA2CFEBE9929923D60A9D427C3FCC38129567D7</t>
   </si>
 </sst>
 </file>
@@ -616,54 +724,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -691,31 +799,145 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -729,34 +951,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,34 +1014,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,33 +1076,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -849,37 +1146,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -897,37 +1208,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -945,37 +1270,89 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -993,37 +1370,67 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1041,205 +1448,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,43 +1657,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1482,16 +1735,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1522,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1533,16 +1786,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1573,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1584,16 +1837,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1625,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1636,16 +1889,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1672,18 +1925,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1711,18 +1964,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
